--- a/biology/Biochimie/Jeanne_Crassous/Jeanne_Crassous.xlsx
+++ b/biology/Biochimie/Jeanne_Crassous/Jeanne_Crassous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne Crassous est une chimiste française spécialiste de la chimie organique. Elle dirige ses recherches à l'Institut des sciences chimiques de Rennes de l'université de Rennes. En 2023, elle reçoit la médaille d'argent du CNRS.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne Crassous entre à l'École normale supérieure de Lyon en 1989. Elle y obtient une agrégation de chimie en 1996, puis y soutient sa thèse de doctorat sous la direction d'André Collet. En 2005, elle obtient son habilitation universitaire. Elle rejoint François Diederich (en) à l'École polytechnique fédérale de Zurich en Suisse à l'occasion de son stage post-doctoral[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Crassous entre à l'École normale supérieure de Lyon en 1989. Elle y obtient une agrégation de chimie en 1996, puis y soutient sa thèse de doctorat sous la direction d'André Collet. En 2005, elle obtient son habilitation universitaire. Elle rejoint François Diederich (en) à l'École polytechnique fédérale de Zurich en Suisse à l'occasion de son stage post-doctoral.
 En 1998, elle entre au CNRS à l'École normale supérieure de Lyon. En 2005, elle est nommée chercheuse à l'université Rennes-I. En 2010, elle est nommée directrice de recherche à l'Institut des sciences chimiques de Rennes de l'Université de Rennes et en 2023, elle reçoit la médaille d'argent du CNRS
 Ses recherches portent sur la chiralité , des paires de molécules constituées des mêmes atomes, mais dont la structure 3D est l’image miroir l’une de l’autre. Elle étudie particulièrement les hélicènes, des molécules en forme d'hélice qui interagissent avec la lumière. Elles visent à développer des 
-diodes électroluminescentes organiques notamment [2].
+diodes électroluminescentes organiques notamment .
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023 : médaille d'argent du CNRS[2]
-2021 : membre de l'Académie européenne des sciences[3]
-2020 : prix de la division de chimie organique (DCO) de la Société chimique de France[4]
-2013 : membre distinguée junior de la Société chimique de France[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023 : médaille d'argent du CNRS
+2021 : membre de l'Académie européenne des sciences
+2020 : prix de la division de chimie organique (DCO) de la Société chimique de France
+2013 : membre distinguée junior de la Société chimique de France</t>
         </is>
       </c>
     </row>
